--- a/4 курс/Качество ПО/Lab4.xlsx
+++ b/4 курс/Качество ПО/Lab4.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kparakhin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kparakhin\Desktop\labs\4 курс\Качество ПО\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16776" yWindow="2568" windowWidth="23688" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="расчеты показателей" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>Задача</t>
   </si>
@@ -81,12 +81,6 @@
     <t>p2 (8710/8760):</t>
   </si>
   <si>
-    <t>p3 (1/1):</t>
-  </si>
-  <si>
-    <t>p4 (0/1):</t>
-  </si>
-  <si>
     <t>Интеграционная добротность ИС (3/3):</t>
   </si>
   <si>
@@ -148,6 +142,15 @@
   </si>
   <si>
     <t>Изменение коэффециентов исходов ставок модератором системы</t>
+  </si>
+  <si>
+    <t>p3 (1/3):</t>
+  </si>
+  <si>
+    <t>p4 (0/3):</t>
+  </si>
+  <si>
+    <t>Кол-во комплексов</t>
   </si>
 </sst>
 </file>
@@ -427,7 +430,7 @@
                   <c:v>0.78866666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66523972602739723</c:v>
+                  <c:v>0.49773972602739724</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>1</c:v>
@@ -1479,10 +1482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1493,10 +1496,12 @@
     <col min="4" max="4" width="22.88671875" style="8" customWidth="1"/>
     <col min="5" max="5" width="17" style="8" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" style="8" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="8"/>
+    <col min="7" max="9" width="9.109375" style="8"/>
+    <col min="10" max="10" width="24.5546875" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1516,7 +1521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -1524,9 +1529,9 @@
       <c r="E2" s="21"/>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="36" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -1545,7 +1550,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1566,9 +1571,9 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3">
         <v>0.6</v>
@@ -1587,9 +1592,9 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="72" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="72" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" s="3">
         <v>0.9</v>
@@ -1608,7 +1613,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1629,7 +1634,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="36" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="36" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>10</v>
       </c>
@@ -1638,34 +1643,34 @@
         <v>0.78866666666666663</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="14">
         <f>POWER(B9,2)</f>
         <v>0.62199511111111105</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="16">
         <f>SUM(C12:C13,C15:C16)/4</f>
-        <v>0.66523972602739723</v>
+        <v>0.49773972602739724</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="14">
         <f>POWER(B11,2)</f>
-        <v>0.44254389308500652</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.24774483486582846</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -1673,7 +1678,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
         <v>17</v>
       </c>
@@ -1682,7 +1687,7 @@
         <v>0.99429223744292239</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="72" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="72" x14ac:dyDescent="0.35">
       <c r="B14" s="10" t="s">
         <v>12</v>
       </c>
@@ -1708,18 +1713,24 @@
       <c r="I14" s="8">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C16" s="8">
         <v>0</v>
@@ -1727,13 +1738,13 @@
     </row>
     <row r="18" spans="1:4" ht="36" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18" s="17">
         <v>1</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D18" s="14">
         <f>POWER(B18,2)</f>
@@ -1742,14 +1753,14 @@
     </row>
     <row r="20" spans="1:4" ht="54" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" s="17">
         <f>1*4/4</f>
         <v>1</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D20" s="14">
         <f>POWER(B20,2)</f>
@@ -1758,14 +1769,14 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B22" s="16">
         <f>SUM(C23:C28)/6</f>
         <v>0.52138508371385084</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D22" s="14">
         <f>POWER(B22,2)</f>
@@ -1774,7 +1785,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B23" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C23" s="11">
         <v>1</v>
@@ -1782,7 +1793,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B24" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" s="11">
         <v>1</v>
@@ -1790,7 +1801,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B25" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C25" s="11">
         <f>1000/8760</f>
@@ -1799,7 +1810,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B26" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C26" s="11">
         <v>0</v>
@@ -1807,7 +1818,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B27" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C27" s="11">
         <f>1000/8760</f>
@@ -1816,7 +1827,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B28" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C28" s="11">
         <v>0.9</v>
@@ -1824,11 +1835,11 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B30" s="14">
         <f>SQRT(SUM(D9,D11,D18,D20,D22)/5)</f>
-        <v>0.81686980721721092</v>
+        <v>0.79266415984277205</v>
       </c>
     </row>
   </sheetData>
@@ -1863,10 +1874,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="54" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>4</v>
@@ -1874,46 +1885,46 @@
     </row>
     <row r="2" spans="1:3" ht="54" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="54" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
